--- a/Output/past_adr.xlsx
+++ b/Output/past_adr.xlsx
@@ -536,1201 +536,1201 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.6365306122449</v>
+        <v>50.7294</v>
       </c>
       <c r="C2" t="n">
-        <v>54.01729166666667</v>
+        <v>41.84170212765957</v>
       </c>
       <c r="D2" t="n">
-        <v>55.5498</v>
+        <v>40.4834693877551</v>
       </c>
       <c r="E2" t="n">
-        <v>44.91073170731707</v>
+        <v>42.64978260869565</v>
       </c>
       <c r="F2" t="n">
-        <v>40.25288888888889</v>
+        <v>42.03333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>41.91636363636363</v>
+        <v>42.79142857142858</v>
       </c>
       <c r="H2" t="n">
-        <v>38.9325</v>
+        <v>52.09296296296296</v>
       </c>
       <c r="I2" t="n">
-        <v>42.44418181818182</v>
+        <v>51.75966666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>57.19055555555556</v>
+        <v>44.085</v>
       </c>
       <c r="K2" t="n">
-        <v>59.88019607843137</v>
+        <v>38.7146875</v>
       </c>
       <c r="L2" t="n">
-        <v>51.55936170212766</v>
+        <v>41.98263157894737</v>
       </c>
       <c r="M2" t="n">
-        <v>43.90909090909091</v>
+        <v>42.47083333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>41.74519230769231</v>
+        <v>41.49357142857143</v>
       </c>
       <c r="O2" t="n">
-        <v>44.09559322033898</v>
+        <v>50.98466666666666</v>
       </c>
       <c r="P2" t="n">
-        <v>44.70888888888889</v>
+        <v>55.04451612903226</v>
       </c>
       <c r="Q2" t="n">
-        <v>55.59864864864865</v>
+        <v>45.12230769230769</v>
       </c>
       <c r="R2" t="n">
-        <v>51.27266666666667</v>
+        <v>45.46347826086957</v>
       </c>
       <c r="S2" t="n">
-        <v>54.27372549019608</v>
+        <v>40.96391304347826</v>
       </c>
       <c r="T2" t="n">
-        <v>46.54414634146341</v>
+        <v>41.31694444444445</v>
       </c>
       <c r="U2" t="n">
-        <v>41.35028571428571</v>
+        <v>42.77225806451613</v>
       </c>
       <c r="V2" t="n">
-        <v>44.20172413793103</v>
+        <v>49.23481481481481</v>
       </c>
       <c r="W2" t="n">
-        <v>46.94846153846154</v>
+        <v>50.4664</v>
       </c>
       <c r="X2" t="n">
-        <v>61.55103448275862</v>
+        <v>39.7212</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.61642857142857</v>
+        <v>37.23857142857143</v>
       </c>
       <c r="Z2" t="n">
-        <v>68.24684210526316</v>
+        <v>39.20296296296296</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.37567567567568</v>
+        <v>41.26368421052631</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.11176470588235</v>
+        <v>43.61131578947369</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.00583333333334</v>
+        <v>55.52629629629629</v>
       </c>
       <c r="AD2" t="n">
-        <v>40.48642857142858</v>
+        <v>54.39730769230769</v>
       </c>
       <c r="AE2" t="n">
-        <v>41.72625</v>
+        <v>44.0972340425532</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>44.15310344827586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.89711538461539</v>
+        <v>42.43967741935484</v>
       </c>
       <c r="C3" t="n">
-        <v>49.99074074074074</v>
+        <v>40.56</v>
       </c>
       <c r="D3" t="n">
-        <v>42.34555555555556</v>
+        <v>40.57414634146341</v>
       </c>
       <c r="E3" t="n">
-        <v>43.173</v>
+        <v>47.78865384615385</v>
       </c>
       <c r="F3" t="n">
-        <v>40.91411764705882</v>
+        <v>54.269</v>
       </c>
       <c r="G3" t="n">
-        <v>45.57785714285715</v>
+        <v>53.45931034482759</v>
       </c>
       <c r="H3" t="n">
-        <v>49.17230769230769</v>
+        <v>46.005625</v>
       </c>
       <c r="I3" t="n">
-        <v>56.01083333333333</v>
+        <v>41.371875</v>
       </c>
       <c r="J3" t="n">
-        <v>55.06128205128205</v>
+        <v>39.4</v>
       </c>
       <c r="K3" t="n">
-        <v>48.2037037037037</v>
+        <v>40.76133333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>37.26272727272728</v>
+        <v>41.48318181818182</v>
       </c>
       <c r="M3" t="n">
-        <v>40.16055555555555</v>
+        <v>50.0466037735849</v>
       </c>
       <c r="N3" t="n">
-        <v>43.08461538461538</v>
+        <v>51.05690909090909</v>
       </c>
       <c r="O3" t="n">
-        <v>49.07205882352941</v>
+        <v>42.07631578947369</v>
       </c>
       <c r="P3" t="n">
-        <v>57.68688888888889</v>
+        <v>41.1925</v>
       </c>
       <c r="Q3" t="n">
-        <v>57.71295454545454</v>
+        <v>43.74868421052631</v>
       </c>
       <c r="R3" t="n">
-        <v>46.44282051282051</v>
+        <v>39.152</v>
       </c>
       <c r="S3" t="n">
-        <v>41.77878048780488</v>
+        <v>40.66934782608696</v>
       </c>
       <c r="T3" t="n">
-        <v>39.91232558139535</v>
+        <v>56.28340425531916</v>
       </c>
       <c r="U3" t="n">
-        <v>40.41450980392157</v>
+        <v>56.11607843137255</v>
       </c>
       <c r="V3" t="n">
-        <v>44.14279999999999</v>
+        <v>41.8090625</v>
       </c>
       <c r="W3" t="n">
-        <v>53.18695652173913</v>
+        <v>40.34078947368421</v>
       </c>
       <c r="X3" t="n">
-        <v>53.68938775510203</v>
+        <v>43.94977272727272</v>
       </c>
       <c r="Y3" t="n">
-        <v>44.55692307692308</v>
+        <v>45.11857142857143</v>
       </c>
       <c r="Z3" t="n">
-        <v>40.72666666666667</v>
+        <v>42.49794871794872</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.68891891891892</v>
+        <v>52.33243902439025</v>
       </c>
       <c r="AB3" t="n">
-        <v>41.87028571428571</v>
+        <v>51.67318181818182</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.26682926829268</v>
+        <v>41.57444444444445</v>
       </c>
       <c r="AD3" t="n">
-        <v>53.8642</v>
+        <v>41.43739130434783</v>
       </c>
       <c r="AE3" t="n">
-        <v>54.605</v>
+        <v>41.33057142857142</v>
       </c>
       <c r="AF3" t="n">
-        <v>45.00425</v>
+        <v>46.148125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.09116279069767</v>
+        <v>56.12485714285714</v>
       </c>
       <c r="C4" t="n">
-        <v>43.99225</v>
+        <v>58.66224999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>37.32431372549019</v>
+        <v>52.99659574468085</v>
       </c>
       <c r="E4" t="n">
-        <v>40.91595744680851</v>
+        <v>40.80681818181818</v>
       </c>
       <c r="F4" t="n">
-        <v>55.36666666666667</v>
+        <v>40.80787878787879</v>
       </c>
       <c r="G4" t="n">
-        <v>56.06066666666667</v>
+        <v>43.30064516129032</v>
       </c>
       <c r="H4" t="n">
-        <v>46.005625</v>
+        <v>40.70558823529412</v>
       </c>
       <c r="I4" t="n">
-        <v>41.371875</v>
+        <v>41.12760869565217</v>
       </c>
       <c r="J4" t="n">
-        <v>39.4</v>
+        <v>61.36911111111112</v>
       </c>
       <c r="K4" t="n">
-        <v>40.76133333333333</v>
+        <v>62.78047619047619</v>
       </c>
       <c r="L4" t="n">
-        <v>41.48318181818182</v>
+        <v>49.70384615384616</v>
       </c>
       <c r="M4" t="n">
-        <v>50.0466037735849</v>
+        <v>44.54027027027027</v>
       </c>
       <c r="N4" t="n">
-        <v>51.05690909090909</v>
+        <v>43.0827027027027</v>
       </c>
       <c r="O4" t="n">
-        <v>42.07631578947369</v>
+        <v>43.52820512820512</v>
       </c>
       <c r="P4" t="n">
-        <v>41.1925</v>
+        <v>47.85085714285714</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.74868421052631</v>
+        <v>55.42711538461538</v>
       </c>
       <c r="R4" t="n">
-        <v>39.152</v>
+        <v>53.56075471698113</v>
       </c>
       <c r="S4" t="n">
-        <v>40.66934782608696</v>
+        <v>48.21260869565217</v>
       </c>
       <c r="T4" t="n">
-        <v>56.28340425531916</v>
+        <v>39.98113636363637</v>
       </c>
       <c r="U4" t="n">
-        <v>56.11607843137255</v>
+        <v>41.30891304347826</v>
       </c>
       <c r="V4" t="n">
-        <v>41.8090625</v>
+        <v>44.87809523809524</v>
       </c>
       <c r="W4" t="n">
-        <v>40.34078947368421</v>
+        <v>47.12854166666667</v>
       </c>
       <c r="X4" t="n">
-        <v>43.94977272727272</v>
+        <v>55.5682</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.11857142857143</v>
+        <v>54.06207547169812</v>
       </c>
       <c r="Z4" t="n">
-        <v>42.49794871794872</v>
+        <v>47.7942</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.33243902439025</v>
+        <v>46.16212765957447</v>
       </c>
       <c r="AB4" t="n">
-        <v>51.67318181818182</v>
+        <v>47.34553191489361</v>
       </c>
       <c r="AC4" t="n">
-        <v>41.57444444444445</v>
+        <v>48.15318181818182</v>
       </c>
       <c r="AD4" t="n">
-        <v>41.43739130434783</v>
+        <v>47.12235294117647</v>
       </c>
       <c r="AE4" t="n">
-        <v>41.33057142857142</v>
+        <v>59.61577777777778</v>
       </c>
       <c r="AF4" t="n">
-        <v>42.19257142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.69394736842105</v>
+        <v>88.00935483870968</v>
       </c>
       <c r="C5" t="n">
-        <v>58.66224999999999</v>
+        <v>54.56714285714286</v>
       </c>
       <c r="D5" t="n">
-        <v>52.99659574468085</v>
+        <v>42.89758620689655</v>
       </c>
       <c r="E5" t="n">
-        <v>40.80681818181818</v>
+        <v>46.01108108108108</v>
       </c>
       <c r="F5" t="n">
-        <v>40.80787878787879</v>
+        <v>46.15358974358974</v>
       </c>
       <c r="G5" t="n">
-        <v>43.30064516129032</v>
+        <v>79.47714285714285</v>
       </c>
       <c r="H5" t="n">
-        <v>40.70558823529412</v>
+        <v>113.1473684210526</v>
       </c>
       <c r="I5" t="n">
-        <v>41.12760869565217</v>
+        <v>113.1473684210526</v>
       </c>
       <c r="J5" t="n">
-        <v>61.36911111111112</v>
+        <v>73.8925</v>
       </c>
       <c r="K5" t="n">
-        <v>62.78047619047619</v>
+        <v>48.58555555555555</v>
       </c>
       <c r="L5" t="n">
-        <v>46.15357142857143</v>
+        <v>42.31545454545455</v>
       </c>
       <c r="M5" t="n">
-        <v>41.19975</v>
+        <v>46.36228571428572</v>
       </c>
       <c r="N5" t="n">
-        <v>43.0827027027027</v>
+        <v>66.62779999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>43.52820512820512</v>
+        <v>86.98775510204081</v>
       </c>
       <c r="P5" t="n">
-        <v>47.85085714285714</v>
+        <v>93.19840000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>55.42711538461538</v>
+        <v>68.52272727272727</v>
       </c>
       <c r="R5" t="n">
-        <v>53.56075471698113</v>
+        <v>47.10344827586207</v>
       </c>
       <c r="S5" t="n">
-        <v>48.21260869565217</v>
+        <v>45.64705882352941</v>
       </c>
       <c r="T5" t="n">
-        <v>39.98113636363637</v>
+        <v>45.43275</v>
       </c>
       <c r="U5" t="n">
-        <v>41.30891304347826</v>
+        <v>79.23275</v>
       </c>
       <c r="V5" t="n">
-        <v>44.87809523809524</v>
+        <v>121.94</v>
       </c>
       <c r="W5" t="n">
-        <v>47.12854166666667</v>
+        <v>118.6205405405405</v>
       </c>
       <c r="X5" t="n">
-        <v>55.5682</v>
+        <v>72.47666666666666</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.06207547169812</v>
+        <v>49.21428571428572</v>
       </c>
       <c r="Z5" t="n">
-        <v>47.7942</v>
+        <v>42.125</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.16212765957447</v>
+        <v>41.54545454545455</v>
       </c>
       <c r="AB5" t="n">
-        <v>47.34553191489361</v>
+        <v>66.28947368421052</v>
       </c>
       <c r="AC5" t="n">
-        <v>48.15318181818182</v>
+        <v>85.73333333333333</v>
       </c>
       <c r="AD5" t="n">
-        <v>47.12235294117647</v>
+        <v>89.93181818181819</v>
       </c>
       <c r="AE5" t="n">
-        <v>59.61577777777778</v>
+        <v>55.94871794871795</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>39.77777777777778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Oct</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.00935483870968</v>
+        <v>45.04166666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>54.56714285714286</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>42.89758620689655</v>
+        <v>52.70833333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>46.01108108108108</v>
+        <v>69.33666666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>46.15358974358974</v>
+        <v>65.54638888888888</v>
       </c>
       <c r="G6" t="n">
-        <v>79.47714285714285</v>
+        <v>53.31440000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>113.1473684210526</v>
+        <v>45.53208333333333</v>
       </c>
       <c r="I6" t="n">
-        <v>113.1473684210526</v>
+        <v>42.77944444444444</v>
       </c>
       <c r="J6" t="n">
-        <v>73.8925</v>
+        <v>41.87636363636364</v>
       </c>
       <c r="K6" t="n">
-        <v>48.58555555555555</v>
+        <v>52.76586956521739</v>
       </c>
       <c r="L6" t="n">
-        <v>42.31545454545455</v>
+        <v>62.41018518518518</v>
       </c>
       <c r="M6" t="n">
-        <v>46.36228571428572</v>
+        <v>65.01925925925926</v>
       </c>
       <c r="N6" t="n">
-        <v>66.62779999999999</v>
+        <v>51.85541666666666</v>
       </c>
       <c r="O6" t="n">
-        <v>86.98775510204081</v>
+        <v>42.224375</v>
       </c>
       <c r="P6" t="n">
-        <v>93.19840000000001</v>
+        <v>42.53527272727273</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.52272727272727</v>
+        <v>43.85720000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>47.10344827586207</v>
+        <v>47.07979166666667</v>
       </c>
       <c r="S6" t="n">
-        <v>45.64705882352941</v>
+        <v>54.84551020408163</v>
       </c>
       <c r="T6" t="n">
-        <v>45.43275</v>
+        <v>51.9366</v>
       </c>
       <c r="U6" t="n">
-        <v>79.23275</v>
+        <v>41.71055555555555</v>
       </c>
       <c r="V6" t="n">
-        <v>121.94</v>
+        <v>35.0235</v>
       </c>
       <c r="W6" t="n">
-        <v>118.6205405405405</v>
+        <v>35.74114285714286</v>
       </c>
       <c r="X6" t="n">
-        <v>72.47666666666666</v>
+        <v>38.17</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.21428571428572</v>
+        <v>42.85195121951219</v>
       </c>
       <c r="Z6" t="n">
-        <v>42.125</v>
+        <v>49.07021276595745</v>
       </c>
       <c r="AA6" t="n">
-        <v>41.54545454545455</v>
+        <v>46.9425</v>
       </c>
       <c r="AB6" t="n">
-        <v>66.28947368421052</v>
+        <v>36.43</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.73333333333333</v>
+        <v>38.46054054054054</v>
       </c>
       <c r="AD6" t="n">
-        <v>84.19148936170212</v>
+        <v>40.38363636363636</v>
       </c>
       <c r="AE6" t="n">
-        <v>55.94871794871795</v>
+        <v>40.37777777777777</v>
       </c>
       <c r="AF6" t="n">
-        <v>39.77777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.04166666666666</v>
+        <v>41.95458333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>44.16666666666666</v>
+        <v>42.4956862745098</v>
       </c>
       <c r="D7" t="n">
-        <v>52.70833333333334</v>
+        <v>47.31470588235295</v>
       </c>
       <c r="E7" t="n">
-        <v>69.33666666666666</v>
+        <v>38.909375</v>
       </c>
       <c r="F7" t="n">
-        <v>65.54638888888888</v>
+        <v>37.29235294117647</v>
       </c>
       <c r="G7" t="n">
-        <v>53.31440000000001</v>
+        <v>40.68095238095238</v>
       </c>
       <c r="H7" t="n">
-        <v>45.53208333333333</v>
+        <v>41.27954545454546</v>
       </c>
       <c r="I7" t="n">
-        <v>42.77944444444444</v>
+        <v>42.55086956521739</v>
       </c>
       <c r="J7" t="n">
-        <v>41.87636363636364</v>
+        <v>50.53418604651162</v>
       </c>
       <c r="K7" t="n">
-        <v>52.76586956521739</v>
+        <v>47.35913043478261</v>
       </c>
       <c r="L7" t="n">
-        <v>62.41018518518518</v>
+        <v>43.21125</v>
       </c>
       <c r="M7" t="n">
-        <v>65.01925925925926</v>
+        <v>41.3</v>
       </c>
       <c r="N7" t="n">
-        <v>51.85541666666666</v>
+        <v>38.70162162162162</v>
       </c>
       <c r="O7" t="n">
-        <v>42.224375</v>
+        <v>37.45030303030303</v>
       </c>
       <c r="P7" t="n">
-        <v>42.53527272727273</v>
+        <v>43.315</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.85720000000001</v>
+        <v>54.12821428571429</v>
       </c>
       <c r="R7" t="n">
-        <v>47.07979166666667</v>
+        <v>53.15162162162162</v>
       </c>
       <c r="S7" t="n">
-        <v>54.84551020408163</v>
+        <v>46.08647058823529</v>
       </c>
       <c r="T7" t="n">
-        <v>51.9366</v>
+        <v>41.58703703703704</v>
       </c>
       <c r="U7" t="n">
-        <v>41.71055555555555</v>
+        <v>35.54615384615385</v>
       </c>
       <c r="V7" t="n">
-        <v>35.0235</v>
+        <v>37.87357142857143</v>
       </c>
       <c r="W7" t="n">
-        <v>35.74114285714286</v>
+        <v>42.826</v>
       </c>
       <c r="X7" t="n">
-        <v>38.17</v>
+        <v>46.12807692307692</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.85195121951219</v>
+        <v>52.843</v>
       </c>
       <c r="Z7" t="n">
-        <v>49.07021276595745</v>
+        <v>46.79947368421053</v>
       </c>
       <c r="AA7" t="n">
-        <v>46.9425</v>
+        <v>40.66619047619048</v>
       </c>
       <c r="AB7" t="n">
-        <v>36.43</v>
+        <v>38.76666666666667</v>
       </c>
       <c r="AC7" t="n">
-        <v>38.46054054054054</v>
+        <v>38.99666666666667</v>
       </c>
       <c r="AD7" t="n">
-        <v>40.38363636363636</v>
+        <v>43.89714285714286</v>
       </c>
       <c r="AE7" t="n">
-        <v>40.37777777777777</v>
+        <v>53.28478260869565</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>50.5646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Dec</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.95458333333333</v>
+        <v>39.01390243902439</v>
       </c>
       <c r="C8" t="n">
-        <v>42.4956862745098</v>
+        <v>39.72076923076924</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31470588235295</v>
+        <v>36.90484848484848</v>
       </c>
       <c r="E8" t="n">
-        <v>38.909375</v>
+        <v>39.05333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>37.29235294117647</v>
+        <v>41.82254901960784</v>
       </c>
       <c r="G8" t="n">
-        <v>40.68095238095238</v>
+        <v>44.22490196078431</v>
       </c>
       <c r="H8" t="n">
-        <v>41.27954545454546</v>
+        <v>43.33509433962264</v>
       </c>
       <c r="I8" t="n">
-        <v>42.55086956521739</v>
+        <v>38.06057142857143</v>
       </c>
       <c r="J8" t="n">
-        <v>50.53418604651162</v>
+        <v>36.90545454545455</v>
       </c>
       <c r="K8" t="n">
-        <v>47.35913043478261</v>
+        <v>38.3684375</v>
       </c>
       <c r="L8" t="n">
-        <v>43.21125</v>
+        <v>40.01885714285714</v>
       </c>
       <c r="M8" t="n">
-        <v>41.3</v>
+        <v>43.12121951219513</v>
       </c>
       <c r="N8" t="n">
-        <v>38.70162162162162</v>
+        <v>52.68562499999999</v>
       </c>
       <c r="O8" t="n">
-        <v>37.45030303030303</v>
+        <v>51.97</v>
       </c>
       <c r="P8" t="n">
-        <v>43.315</v>
+        <v>43.22068181818182</v>
       </c>
       <c r="Q8" t="n">
-        <v>54.12821428571429</v>
+        <v>37.315</v>
       </c>
       <c r="R8" t="n">
-        <v>53.15162162162162</v>
+        <v>35.7351724137931</v>
       </c>
       <c r="S8" t="n">
-        <v>46.08647058823529</v>
+        <v>36.26346153846154</v>
       </c>
       <c r="T8" t="n">
-        <v>41.58703703703704</v>
+        <v>40.89085714285714</v>
       </c>
       <c r="U8" t="n">
-        <v>35.54615384615385</v>
+        <v>47.4418918918919</v>
       </c>
       <c r="V8" t="n">
-        <v>37.87357142857143</v>
+        <v>50.22837209302326</v>
       </c>
       <c r="W8" t="n">
-        <v>42.826</v>
+        <v>38.74807692307692</v>
       </c>
       <c r="X8" t="n">
-        <v>46.12807692307692</v>
+        <v>35.82375</v>
       </c>
       <c r="Y8" t="n">
-        <v>52.843</v>
+        <v>35.4905</v>
       </c>
       <c r="Z8" t="n">
-        <v>46.79947368421053</v>
+        <v>36.16653846153847</v>
       </c>
       <c r="AA8" t="n">
-        <v>40.66619047619048</v>
+        <v>39.92183673469388</v>
       </c>
       <c r="AB8" t="n">
-        <v>38.76666666666667</v>
+        <v>50.76111111111111</v>
       </c>
       <c r="AC8" t="n">
-        <v>38.99666666666667</v>
+        <v>55.42369565217391</v>
       </c>
       <c r="AD8" t="n">
-        <v>43.89714285714286</v>
+        <v>47.34763157894737</v>
       </c>
       <c r="AE8" t="n">
-        <v>53.28478260869565</v>
+        <v>38.57884615384616</v>
       </c>
       <c r="AF8" t="n">
-        <v>50.5646</v>
+        <v>39.0324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.01390243902439</v>
+        <v>41.61464285714286</v>
       </c>
       <c r="C9" t="n">
-        <v>39.72076923076924</v>
+        <v>40.9218918918919</v>
       </c>
       <c r="D9" t="n">
-        <v>36.90484848484848</v>
+        <v>51.23951219512195</v>
       </c>
       <c r="E9" t="n">
-        <v>39.05333333333333</v>
+        <v>52.8398</v>
       </c>
       <c r="F9" t="n">
-        <v>41.82254901960784</v>
+        <v>42.43771428571429</v>
       </c>
       <c r="G9" t="n">
-        <v>44.22490196078431</v>
+        <v>42.22974358974359</v>
       </c>
       <c r="H9" t="n">
-        <v>43.33509433962264</v>
+        <v>36.262</v>
       </c>
       <c r="I9" t="n">
-        <v>38.06057142857143</v>
+        <v>36.24840909090909</v>
       </c>
       <c r="J9" t="n">
-        <v>36.90545454545455</v>
+        <v>41.91111111111111</v>
       </c>
       <c r="K9" t="n">
-        <v>38.3684375</v>
+        <v>53.03347826086956</v>
       </c>
       <c r="L9" t="n">
-        <v>40.01885714285714</v>
+        <v>49.47894736842105</v>
       </c>
       <c r="M9" t="n">
-        <v>43.12121951219513</v>
+        <v>48.57371428571428</v>
       </c>
       <c r="N9" t="n">
-        <v>52.68562499999999</v>
+        <v>44.0635294117647</v>
       </c>
       <c r="O9" t="n">
-        <v>51.97</v>
+        <v>39.07428571428571</v>
       </c>
       <c r="P9" t="n">
-        <v>43.22068181818182</v>
+        <v>37.81780487804878</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.315</v>
+        <v>39.15787234042553</v>
       </c>
       <c r="R9" t="n">
-        <v>35.7351724137931</v>
+        <v>51.775</v>
       </c>
       <c r="S9" t="n">
-        <v>36.26346153846154</v>
+        <v>54.47347826086957</v>
       </c>
       <c r="T9" t="n">
-        <v>40.89085714285714</v>
+        <v>43.57404255319149</v>
       </c>
       <c r="U9" t="n">
-        <v>47.4418918918919</v>
+        <v>36.50923076923077</v>
       </c>
       <c r="V9" t="n">
-        <v>50.22837209302326</v>
+        <v>38.78444444444445</v>
       </c>
       <c r="W9" t="n">
-        <v>38.74807692307692</v>
+        <v>44.1315625</v>
       </c>
       <c r="X9" t="n">
-        <v>35.82375</v>
+        <v>45.85972222222222</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.4905</v>
+        <v>51.9378</v>
       </c>
       <c r="Z9" t="n">
-        <v>36.16653846153847</v>
+        <v>49.64634615384615</v>
       </c>
       <c r="AA9" t="n">
-        <v>39.92183673469388</v>
+        <v>43.80024390243902</v>
       </c>
       <c r="AB9" t="n">
-        <v>50.76111111111111</v>
+        <v>40.1075</v>
       </c>
       <c r="AC9" t="n">
-        <v>53.114375</v>
+        <v>42.89823529411765</v>
       </c>
       <c r="AD9" t="n">
-        <v>44.98025</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>38.57884615384616</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>39.0324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Feb</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.58741935483871</v>
+        <v>44.13742857142857</v>
       </c>
       <c r="C10" t="n">
-        <v>37.85275</v>
+        <v>41.52071428571429</v>
       </c>
       <c r="D10" t="n">
-        <v>47.74590909090909</v>
+        <v>54.14090909090908</v>
       </c>
       <c r="E10" t="n">
-        <v>52.8398</v>
+        <v>56.47795918367347</v>
       </c>
       <c r="F10" t="n">
-        <v>42.43771428571429</v>
+        <v>44.216</v>
       </c>
       <c r="G10" t="n">
-        <v>42.22974358974359</v>
+        <v>42.003125</v>
       </c>
       <c r="H10" t="n">
-        <v>36.262</v>
+        <v>42.19894736842105</v>
       </c>
       <c r="I10" t="n">
-        <v>36.24840909090909</v>
+        <v>42.39224489795918</v>
       </c>
       <c r="J10" t="n">
-        <v>41.91111111111111</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>53.03347826086956</v>
+        <v>102.0566037735849</v>
       </c>
       <c r="L10" t="n">
-        <v>49.47894736842105</v>
+        <v>103.7358490566038</v>
       </c>
       <c r="M10" t="n">
-        <v>48.57371428571428</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>44.0635294117647</v>
+        <v>63.18367346938776</v>
       </c>
       <c r="O10" t="n">
-        <v>39.07428571428571</v>
+        <v>57.36734693877551</v>
       </c>
       <c r="P10" t="n">
-        <v>37.81780487804878</v>
+        <v>56.209</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.15787234042553</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="R10" t="n">
-        <v>51.775</v>
+        <v>96.80811320754717</v>
       </c>
       <c r="S10" t="n">
-        <v>54.47347826086957</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>43.57404255319149</v>
+        <v>72.45606060606062</v>
       </c>
       <c r="U10" t="n">
-        <v>36.50923076923077</v>
+        <v>50.33571428571428</v>
       </c>
       <c r="V10" t="n">
-        <v>38.78444444444445</v>
+        <v>48.83521739130435</v>
       </c>
       <c r="W10" t="n">
-        <v>44.1315625</v>
+        <v>39.48784313725491</v>
       </c>
       <c r="X10" t="n">
-        <v>45.85972222222222</v>
+        <v>44.41428571428571</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.9378</v>
+        <v>64.45217391304348</v>
       </c>
       <c r="Z10" t="n">
-        <v>49.64634615384615</v>
+        <v>54.88444444444445</v>
       </c>
       <c r="AA10" t="n">
-        <v>43.80024390243902</v>
+        <v>41.62</v>
       </c>
       <c r="AB10" t="n">
-        <v>40.1075</v>
+        <v>40.75529411764706</v>
       </c>
       <c r="AC10" t="n">
-        <v>42.89823529411765</v>
+        <v>45.42955555555555</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>49.869</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>45.97040816326531</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>56.39775510204081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.13742857142857</v>
+        <v>53.56211538461538</v>
       </c>
       <c r="C11" t="n">
-        <v>41.52071428571429</v>
+        <v>44.14729166666667</v>
       </c>
       <c r="D11" t="n">
-        <v>54.14090909090908</v>
+        <v>41.10878048780488</v>
       </c>
       <c r="E11" t="n">
-        <v>56.47795918367347</v>
+        <v>41.60883720930233</v>
       </c>
       <c r="F11" t="n">
-        <v>44.216</v>
+        <v>41.12386363636364</v>
       </c>
       <c r="G11" t="n">
-        <v>42.003125</v>
+        <v>46.45148936170212</v>
       </c>
       <c r="H11" t="n">
-        <v>42.19894736842105</v>
+        <v>54.43288461538462</v>
       </c>
       <c r="I11" t="n">
-        <v>42.39224489795918</v>
+        <v>56.46186046511628</v>
       </c>
       <c r="J11" t="n">
-        <v>86.66666666666667</v>
+        <v>45.38184210526316</v>
       </c>
       <c r="K11" t="n">
-        <v>102.0566037735849</v>
+        <v>37.85931034482759</v>
       </c>
       <c r="L11" t="n">
-        <v>103.7358490566038</v>
+        <v>39.3115</v>
       </c>
       <c r="M11" t="n">
-        <v>79.59999999999999</v>
+        <v>43.79272727272728</v>
       </c>
       <c r="N11" t="n">
-        <v>63.18367346938776</v>
+        <v>45.00867924528302</v>
       </c>
       <c r="O11" t="n">
-        <v>57.36734693877551</v>
+        <v>55.99727272727272</v>
       </c>
       <c r="P11" t="n">
-        <v>56.209</v>
+        <v>56.43654545454546</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.09999999999999</v>
+        <v>50.04634615384615</v>
       </c>
       <c r="R11" t="n">
-        <v>96.80811320754717</v>
+        <v>47.66738095238095</v>
       </c>
       <c r="S11" t="n">
-        <v>97.15000000000001</v>
+        <v>47.36744186046511</v>
       </c>
       <c r="T11" t="n">
-        <v>72.45606060606062</v>
+        <v>47.4725</v>
       </c>
       <c r="U11" t="n">
-        <v>50.33571428571428</v>
+        <v>48.42098039215686</v>
       </c>
       <c r="V11" t="n">
-        <v>48.83521739130435</v>
+        <v>66.60818181818182</v>
       </c>
       <c r="W11" t="n">
-        <v>39.48784313725491</v>
+        <v>64.6691489361702</v>
       </c>
       <c r="X11" t="n">
-        <v>44.41428571428571</v>
+        <v>51.19090909090909</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.45217391304348</v>
+        <v>43.53042553191489</v>
       </c>
       <c r="Z11" t="n">
-        <v>54.88444444444445</v>
+        <v>46.6568</v>
       </c>
       <c r="AA11" t="n">
-        <v>41.62</v>
+        <v>48.01958333333334</v>
       </c>
       <c r="AB11" t="n">
-        <v>40.75529411764706</v>
+        <v>50.13942307692308</v>
       </c>
       <c r="AC11" t="n">
-        <v>45.42955555555555</v>
+        <v>55.5929411764706</v>
       </c>
       <c r="AD11" t="n">
-        <v>49.869</v>
+        <v>55.2274</v>
       </c>
       <c r="AE11" t="n">
-        <v>45.97040816326531</v>
+        <v>47.48541666666667</v>
       </c>
       <c r="AF11" t="n">
-        <v>56.39775510204081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53.56211538461538</v>
+        <v>42.57909090909091</v>
       </c>
       <c r="C12" t="n">
-        <v>44.14729166666667</v>
+        <v>41.01452380952381</v>
       </c>
       <c r="D12" t="n">
-        <v>41.10878048780488</v>
+        <v>41.11666666666666</v>
       </c>
       <c r="E12" t="n">
-        <v>41.60883720930233</v>
+        <v>45.29296296296297</v>
       </c>
       <c r="F12" t="n">
-        <v>41.12386363636364</v>
+        <v>59.34979591836734</v>
       </c>
       <c r="G12" t="n">
-        <v>46.45148936170212</v>
+        <v>56.82148148148148</v>
       </c>
       <c r="H12" t="n">
-        <v>54.43288461538462</v>
+        <v>46.31208333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>56.46186046511628</v>
+        <v>45.37341463414634</v>
       </c>
       <c r="J12" t="n">
-        <v>45.38184210526316</v>
+        <v>41.778</v>
       </c>
       <c r="K12" t="n">
-        <v>37.85931034482759</v>
+        <v>39.82615384615384</v>
       </c>
       <c r="L12" t="n">
-        <v>39.3115</v>
+        <v>43.48829268292683</v>
       </c>
       <c r="M12" t="n">
-        <v>43.79272727272728</v>
+        <v>53.24283018867924</v>
       </c>
       <c r="N12" t="n">
-        <v>45.00867924528302</v>
+        <v>52.47692307692308</v>
       </c>
       <c r="O12" t="n">
-        <v>55.99727272727272</v>
+        <v>40.74880952380953</v>
       </c>
       <c r="P12" t="n">
-        <v>56.43654545454546</v>
+        <v>42.17725</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.04634615384615</v>
+        <v>43.08232142857143</v>
       </c>
       <c r="R12" t="n">
-        <v>46.55883720930233</v>
+        <v>40.49259259259259</v>
       </c>
       <c r="S12" t="n">
-        <v>46.29090909090909</v>
+        <v>42.9548076923077</v>
       </c>
       <c r="T12" t="n">
-        <v>46.50367346938775</v>
+        <v>51.88482142857143</v>
       </c>
       <c r="U12" t="n">
-        <v>47.48980769230769</v>
+        <v>53.06346938775511</v>
       </c>
       <c r="V12" t="n">
-        <v>66.60818181818182</v>
+        <v>43.5945652173913</v>
       </c>
       <c r="W12" t="n">
-        <v>64.6691489361702</v>
+        <v>39.73634146341463</v>
       </c>
       <c r="X12" t="n">
-        <v>51.19090909090909</v>
+        <v>40.54769230769231</v>
       </c>
       <c r="Y12" t="n">
-        <v>43.53042553191489</v>
+        <v>46.37756756756757</v>
       </c>
       <c r="Z12" t="n">
-        <v>46.6568</v>
+        <v>45.17</v>
       </c>
       <c r="AA12" t="n">
-        <v>48.01958333333334</v>
+        <v>56.37695652173913</v>
       </c>
       <c r="AB12" t="n">
-        <v>50.13942307692308</v>
+        <v>56.58367346938775</v>
       </c>
       <c r="AC12" t="n">
-        <v>55.5929411764706</v>
+        <v>45.81098039215686</v>
       </c>
       <c r="AD12" t="n">
-        <v>55.2274</v>
+        <v>47.58230769230769</v>
       </c>
       <c r="AE12" t="n">
-        <v>47.48541666666667</v>
+        <v>43.89641025641026</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>44.49244897959184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.57909090909091</v>
+        <v>44.75395833333334</v>
       </c>
       <c r="C13" t="n">
-        <v>41.01452380952381</v>
+        <v>54.58326086956522</v>
       </c>
       <c r="D13" t="n">
-        <v>41.11666666666666</v>
+        <v>55.69770833333333</v>
       </c>
       <c r="E13" t="n">
-        <v>45.29296296296297</v>
+        <v>44.54717948717948</v>
       </c>
       <c r="F13" t="n">
-        <v>59.34979591836734</v>
+        <v>40.21813953488373</v>
       </c>
       <c r="G13" t="n">
-        <v>56.82148148148148</v>
+        <v>42.10451612903226</v>
       </c>
       <c r="H13" t="n">
-        <v>46.31208333333333</v>
+        <v>38.92852941176471</v>
       </c>
       <c r="I13" t="n">
-        <v>45.37341463414634</v>
+        <v>42.91530612244897</v>
       </c>
       <c r="J13" t="n">
-        <v>41.778</v>
+        <v>59.38979166666667</v>
       </c>
       <c r="K13" t="n">
-        <v>39.82615384615384</v>
+        <v>61.72413043478261</v>
       </c>
       <c r="L13" t="n">
-        <v>43.48829268292683</v>
+        <v>52.09829268292683</v>
       </c>
       <c r="M13" t="n">
-        <v>53.24283018867924</v>
+        <v>44.83411764705882</v>
       </c>
       <c r="N13" t="n">
-        <v>52.47692307692308</v>
+        <v>42.20878048780488</v>
       </c>
       <c r="O13" t="n">
-        <v>40.74880952380953</v>
+        <v>43.73837209302326</v>
       </c>
       <c r="P13" t="n">
-        <v>42.17725</v>
+        <v>46.57142857142857</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.08232142857143</v>
+        <v>53.88939999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>40.49259259259259</v>
+        <v>53.90046511627907</v>
       </c>
       <c r="S13" t="n">
-        <v>42.9548076923077</v>
+        <v>44.73088888888888</v>
       </c>
       <c r="T13" t="n">
-        <v>51.88482142857143</v>
+        <v>39.065</v>
       </c>
       <c r="U13" t="n">
-        <v>53.06346938775511</v>
+        <v>40.55075</v>
       </c>
       <c r="V13" t="n">
-        <v>43.5945652173913</v>
+        <v>39.71744186046512</v>
       </c>
       <c r="W13" t="n">
-        <v>39.73634146341463</v>
+        <v>42.41378378378378</v>
       </c>
       <c r="X13" t="n">
-        <v>40.54769230769231</v>
+        <v>51.27645833333333</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.37756756756757</v>
+        <v>55.58142857142857</v>
       </c>
       <c r="Z13" t="n">
-        <v>45.17</v>
+        <v>45.31041666666667</v>
       </c>
       <c r="AA13" t="n">
-        <v>56.37695652173913</v>
+        <v>43.13</v>
       </c>
       <c r="AB13" t="n">
-        <v>56.58367346938775</v>
+        <v>43.01378378378379</v>
       </c>
       <c r="AC13" t="n">
-        <v>45.81098039215686</v>
+        <v>47.15428571428571</v>
       </c>
       <c r="AD13" t="n">
-        <v>47.58230769230769</v>
+        <v>43.294375</v>
       </c>
       <c r="AE13" t="n">
-        <v>43.89641025641026</v>
+        <v>53.62681818181818</v>
       </c>
       <c r="AF13" t="n">
-        <v>44.49244897959184</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/past_adr.xlsx
+++ b/Output/past_adr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1302 +434,1459 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>Year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>50.7294</v>
+        <v>2023</v>
       </c>
       <c r="C2" t="n">
-        <v>41.84170212765957</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>40.4834693877551</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42.64978260869565</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>42.03333333333333</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>42.79142857142858</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>52.09296296296296</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.75966666666667</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.085</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>38.7146875</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.98263157894737</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>42.47083333333333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>41.49357142857143</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.98466666666666</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.04451612903226</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.12230769230769</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>45.46347826086957</v>
+        <v>34.6875</v>
       </c>
       <c r="S2" t="n">
-        <v>40.96391304347826</v>
+        <v>35.248125</v>
       </c>
       <c r="T2" t="n">
-        <v>41.31694444444445</v>
+        <v>47.76706730769231</v>
       </c>
       <c r="U2" t="n">
-        <v>42.77225806451613</v>
+        <v>51.68002232142857</v>
       </c>
       <c r="V2" t="n">
-        <v>49.23481481481481</v>
+        <v>40.85066489361702</v>
       </c>
       <c r="W2" t="n">
-        <v>50.4664</v>
+        <v>34.22740384615384</v>
       </c>
       <c r="X2" t="n">
-        <v>39.7212</v>
+        <v>36.36041666666667</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.23857142857143</v>
+        <v>41.37333984375</v>
       </c>
       <c r="Z2" t="n">
-        <v>39.20296296296296</v>
+        <v>42.99348958333334</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.26368421052631</v>
+        <v>48.69168749999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.61131578947369</v>
+        <v>46.54344951923077</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.52629629629629</v>
+        <v>41.06272865853659</v>
       </c>
       <c r="AD2" t="n">
-        <v>54.39730769230769</v>
+        <v>37.60078125</v>
       </c>
       <c r="AE2" t="n">
-        <v>44.0972340425532</v>
+        <v>40.2170955882353</v>
       </c>
       <c r="AF2" t="n">
-        <v>44.15310344827586</v>
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>42.43967741935484</v>
+        <v>2023</v>
       </c>
       <c r="C3" t="n">
-        <v>40.56</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>40.57414634146341</v>
+        <v>41.37883928571428</v>
       </c>
       <c r="E3" t="n">
-        <v>47.78865384615385</v>
+        <v>38.92566964285714</v>
       </c>
       <c r="F3" t="n">
-        <v>54.269</v>
+        <v>50.75710227272727</v>
       </c>
       <c r="G3" t="n">
-        <v>53.45931034482759</v>
+        <v>52.94808673469388</v>
       </c>
       <c r="H3" t="n">
-        <v>46.005625</v>
+        <v>41.4525</v>
       </c>
       <c r="I3" t="n">
-        <v>41.371875</v>
+        <v>39.3779296875</v>
       </c>
       <c r="J3" t="n">
-        <v>39.4</v>
+        <v>39.56151315789474</v>
       </c>
       <c r="K3" t="n">
-        <v>40.76133333333333</v>
+        <v>39.74272959183673</v>
       </c>
       <c r="L3" t="n">
-        <v>41.48318181818182</v>
+        <v>81.25</v>
       </c>
       <c r="M3" t="n">
-        <v>50.0466037735849</v>
+        <v>95.67806603773585</v>
       </c>
       <c r="N3" t="n">
-        <v>51.05690909090909</v>
+        <v>97.25235849056604</v>
       </c>
       <c r="O3" t="n">
-        <v>42.07631578947369</v>
+        <v>74.625</v>
       </c>
       <c r="P3" t="n">
-        <v>41.1925</v>
+        <v>59.23469387755102</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.74868421052631</v>
+        <v>53.78188775510204</v>
       </c>
       <c r="R3" t="n">
-        <v>39.152</v>
+        <v>52.69593749999999</v>
       </c>
       <c r="S3" t="n">
-        <v>40.66934782608696</v>
+        <v>75.09375</v>
       </c>
       <c r="T3" t="n">
-        <v>56.28340425531916</v>
+        <v>90.75760613207548</v>
       </c>
       <c r="U3" t="n">
-        <v>56.11607843137255</v>
+        <v>91.07812500000001</v>
       </c>
       <c r="V3" t="n">
-        <v>41.8090625</v>
+        <v>67.92755681818181</v>
       </c>
       <c r="W3" t="n">
-        <v>40.34078947368421</v>
+        <v>47.18973214285715</v>
       </c>
       <c r="X3" t="n">
-        <v>43.94977272727272</v>
+        <v>45.78301630434783</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.11857142857143</v>
+        <v>37.01985294117647</v>
       </c>
       <c r="Z3" t="n">
-        <v>42.49794871794872</v>
+        <v>41.63839285714285</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.33243902439025</v>
+        <v>60.42391304347826</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.67318181818182</v>
+        <v>51.45416666666667</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.57444444444445</v>
+        <v>39.01875</v>
       </c>
       <c r="AD3" t="n">
-        <v>41.43739130434783</v>
+        <v>38.20808823529412</v>
       </c>
       <c r="AE3" t="n">
-        <v>41.33057142857142</v>
+        <v>42.59020833333333</v>
       </c>
       <c r="AF3" t="n">
-        <v>46.148125</v>
+        <v>46.7521875</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>43.09725765306123</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>52.87289540816326</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>56.12485714285714</v>
+        <v>2023</v>
       </c>
       <c r="C4" t="n">
-        <v>58.66224999999999</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>52.99659574468085</v>
+        <v>50.21448317307692</v>
       </c>
       <c r="E4" t="n">
-        <v>40.80681818181818</v>
+        <v>41.3880859375</v>
       </c>
       <c r="F4" t="n">
-        <v>40.80787878787879</v>
+        <v>38.53948170731707</v>
       </c>
       <c r="G4" t="n">
-        <v>43.30064516129032</v>
+        <v>39.00828488372093</v>
       </c>
       <c r="H4" t="n">
-        <v>40.70558823529412</v>
+        <v>38.55362215909091</v>
       </c>
       <c r="I4" t="n">
-        <v>41.12760869565217</v>
+        <v>43.54827127659574</v>
       </c>
       <c r="J4" t="n">
-        <v>61.36911111111112</v>
+        <v>51.03082932692308</v>
       </c>
       <c r="K4" t="n">
-        <v>62.78047619047619</v>
+        <v>52.93299418604651</v>
       </c>
       <c r="L4" t="n">
-        <v>49.70384615384616</v>
+        <v>42.54547697368421</v>
       </c>
       <c r="M4" t="n">
-        <v>44.54027027027027</v>
+        <v>35.49310344827587</v>
       </c>
       <c r="N4" t="n">
-        <v>43.0827027027027</v>
+        <v>36.85453125</v>
       </c>
       <c r="O4" t="n">
-        <v>43.52820512820512</v>
+        <v>41.05568181818182</v>
       </c>
       <c r="P4" t="n">
-        <v>47.85085714285714</v>
+        <v>42.19563679245283</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.42711538461538</v>
+        <v>52.49744318181818</v>
       </c>
       <c r="R4" t="n">
-        <v>53.56075471698113</v>
+        <v>52.90926136363637</v>
       </c>
       <c r="S4" t="n">
-        <v>48.21260869565217</v>
+        <v>46.91844951923076</v>
       </c>
       <c r="T4" t="n">
-        <v>39.98113636363637</v>
+        <v>43.64890988372093</v>
       </c>
       <c r="U4" t="n">
-        <v>41.30891304347826</v>
+        <v>43.39772727272727</v>
       </c>
       <c r="V4" t="n">
-        <v>44.87809523809524</v>
+        <v>43.59719387755102</v>
       </c>
       <c r="W4" t="n">
-        <v>47.12854166666667</v>
+        <v>44.52169471153846</v>
       </c>
       <c r="X4" t="n">
-        <v>55.5682</v>
+        <v>62.44517045454546</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.06207547169812</v>
+        <v>60.62732712765957</v>
       </c>
       <c r="Z4" t="n">
-        <v>47.7942</v>
+        <v>47.99147727272728</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.16212765957447</v>
+        <v>40.80977393617022</v>
       </c>
       <c r="AB4" t="n">
-        <v>47.34553191489361</v>
+        <v>43.74075</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.15318181818182</v>
+        <v>45.018359375</v>
       </c>
       <c r="AD4" t="n">
-        <v>47.12235294117647</v>
+        <v>47.00570913461538</v>
       </c>
       <c r="AE4" t="n">
-        <v>59.61577777777778</v>
+        <v>52.11838235294118</v>
       </c>
       <c r="AF4" t="n">
+        <v>51.7756875</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>44.517578125</v>
+      </c>
+      <c r="AH4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>88.00935483870968</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="n">
-        <v>54.56714285714286</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>42.89758620689655</v>
+        <v>39.91789772727273</v>
       </c>
       <c r="E5" t="n">
-        <v>46.01108108108108</v>
+        <v>38.45111607142857</v>
       </c>
       <c r="F5" t="n">
-        <v>46.15358974358974</v>
+        <v>38.546875</v>
       </c>
       <c r="G5" t="n">
-        <v>79.47714285714285</v>
+        <v>42.46215277777778</v>
       </c>
       <c r="H5" t="n">
-        <v>113.1473684210526</v>
+        <v>55.64043367346939</v>
       </c>
       <c r="I5" t="n">
-        <v>113.1473684210526</v>
+        <v>53.27013888888889</v>
       </c>
       <c r="J5" t="n">
-        <v>73.8925</v>
+        <v>43.417578125</v>
       </c>
       <c r="K5" t="n">
-        <v>48.58555555555555</v>
+        <v>42.5375762195122</v>
       </c>
       <c r="L5" t="n">
-        <v>42.31545454545455</v>
+        <v>39.166875</v>
       </c>
       <c r="M5" t="n">
-        <v>46.36228571428572</v>
+        <v>37.33701923076923</v>
       </c>
       <c r="N5" t="n">
-        <v>66.62779999999999</v>
+        <v>40.7702743902439</v>
       </c>
       <c r="O5" t="n">
-        <v>86.98775510204081</v>
+        <v>49.91515330188679</v>
       </c>
       <c r="P5" t="n">
-        <v>93.19840000000001</v>
+        <v>49.19711538461539</v>
       </c>
       <c r="Q5" t="n">
-        <v>68.52272727272727</v>
+        <v>38.20200892857143</v>
       </c>
       <c r="R5" t="n">
-        <v>47.10344827586207</v>
+        <v>39.541171875</v>
       </c>
       <c r="S5" t="n">
-        <v>45.64705882352941</v>
+        <v>40.38967633928571</v>
       </c>
       <c r="T5" t="n">
-        <v>45.43275</v>
+        <v>37.96180555555555</v>
       </c>
       <c r="U5" t="n">
-        <v>79.23275</v>
+        <v>40.27013221153846</v>
       </c>
       <c r="V5" t="n">
-        <v>121.94</v>
+        <v>48.64202008928572</v>
       </c>
       <c r="W5" t="n">
-        <v>118.6205405405405</v>
+        <v>49.74700255102041</v>
       </c>
       <c r="X5" t="n">
-        <v>72.47666666666666</v>
+        <v>40.86990489130434</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.21428571428572</v>
+        <v>37.25282012195122</v>
       </c>
       <c r="Z5" t="n">
-        <v>42.125</v>
+        <v>38.01346153846154</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.54545454545455</v>
+        <v>43.4789695945946</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.28947368421052</v>
+        <v>42.346875</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.73333333333333</v>
+        <v>52.85339673913043</v>
       </c>
       <c r="AD5" t="n">
-        <v>89.93181818181819</v>
+        <v>53.04719387755102</v>
       </c>
       <c r="AE5" t="n">
-        <v>55.94871794871795</v>
+        <v>42.94779411764706</v>
       </c>
       <c r="AF5" t="n">
-        <v>39.77777777777778</v>
+        <v>44.60841346153846</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>41.15288461538461</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>41.71167091836735</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>45.04166666666666</v>
+        <v>2023</v>
       </c>
       <c r="C6" t="n">
-        <v>44.16666666666666</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>52.70833333333334</v>
+        <v>41.9568359375</v>
       </c>
       <c r="E6" t="n">
-        <v>69.33666666666666</v>
+        <v>51.17180706521739</v>
       </c>
       <c r="F6" t="n">
-        <v>65.54638888888888</v>
+        <v>52.2166015625</v>
       </c>
       <c r="G6" t="n">
-        <v>53.31440000000001</v>
+        <v>41.76298076923077</v>
       </c>
       <c r="H6" t="n">
-        <v>45.53208333333333</v>
+        <v>37.70450581395349</v>
       </c>
       <c r="I6" t="n">
-        <v>42.77944444444444</v>
+        <v>39.47298387096774</v>
       </c>
       <c r="J6" t="n">
-        <v>41.87636363636364</v>
+        <v>36.49549632352941</v>
       </c>
       <c r="K6" t="n">
-        <v>52.76586956521739</v>
+        <v>40.23309948979592</v>
       </c>
       <c r="L6" t="n">
-        <v>62.41018518518518</v>
+        <v>55.6779296875</v>
       </c>
       <c r="M6" t="n">
-        <v>65.01925925925926</v>
+        <v>57.86637228260869</v>
       </c>
       <c r="N6" t="n">
-        <v>51.85541666666666</v>
+        <v>48.8421493902439</v>
       </c>
       <c r="O6" t="n">
-        <v>42.224375</v>
+        <v>42.03198529411765</v>
       </c>
       <c r="P6" t="n">
-        <v>42.53527272727273</v>
+        <v>39.57073170731707</v>
       </c>
       <c r="Q6" t="n">
-        <v>43.85720000000001</v>
+        <v>41.0047238372093</v>
       </c>
       <c r="R6" t="n">
-        <v>47.07979166666667</v>
+        <v>43.66071428571428</v>
       </c>
       <c r="S6" t="n">
-        <v>54.84551020408163</v>
+        <v>50.52131249999999</v>
       </c>
       <c r="T6" t="n">
-        <v>51.9366</v>
+        <v>50.53168604651162</v>
       </c>
       <c r="U6" t="n">
-        <v>41.71055555555555</v>
+        <v>41.93520833333333</v>
       </c>
       <c r="V6" t="n">
-        <v>35.0235</v>
+        <v>36.6234375</v>
       </c>
       <c r="W6" t="n">
-        <v>35.74114285714286</v>
+        <v>38.016328125</v>
       </c>
       <c r="X6" t="n">
-        <v>38.17</v>
+        <v>37.23510174418605</v>
       </c>
       <c r="Y6" t="n">
-        <v>42.85195121951219</v>
+        <v>39.76292229729729</v>
       </c>
       <c r="Z6" t="n">
-        <v>49.07021276595745</v>
+        <v>48.07167968749999</v>
       </c>
       <c r="AA6" t="n">
-        <v>46.9425</v>
+        <v>52.10758928571428</v>
       </c>
       <c r="AB6" t="n">
-        <v>36.43</v>
+        <v>42.478515625</v>
       </c>
       <c r="AC6" t="n">
-        <v>38.46054054054054</v>
+        <v>40.434375</v>
       </c>
       <c r="AD6" t="n">
-        <v>40.38363636363636</v>
+        <v>40.32542229729729</v>
       </c>
       <c r="AE6" t="n">
-        <v>40.37777777777777</v>
+        <v>44.20714285714286</v>
       </c>
       <c r="AF6" t="n">
+        <v>40.58847656250001</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>50.27514204545454</v>
+      </c>
+      <c r="AH6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>41.95458333333333</v>
+        <v>2023</v>
       </c>
       <c r="C7" t="n">
-        <v>42.4956862745098</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31470588235295</v>
+        <v>47.55881249999999</v>
       </c>
       <c r="E7" t="n">
-        <v>38.909375</v>
+        <v>39.22659574468085</v>
       </c>
       <c r="F7" t="n">
-        <v>37.29235294117647</v>
+        <v>37.95325255102041</v>
       </c>
       <c r="G7" t="n">
-        <v>40.68095238095238</v>
+        <v>39.98417119565217</v>
       </c>
       <c r="H7" t="n">
-        <v>41.27954545454546</v>
+        <v>39.40625</v>
       </c>
       <c r="I7" t="n">
-        <v>42.55086956521739</v>
+        <v>40.11696428571429</v>
       </c>
       <c r="J7" t="n">
-        <v>50.53418604651162</v>
+        <v>48.83715277777777</v>
       </c>
       <c r="K7" t="n">
-        <v>47.35913043478261</v>
+        <v>48.5246875</v>
       </c>
       <c r="L7" t="n">
-        <v>43.21125</v>
+        <v>41.3296875</v>
       </c>
       <c r="M7" t="n">
-        <v>41.3</v>
+        <v>36.29501953125</v>
       </c>
       <c r="N7" t="n">
-        <v>38.70162162162162</v>
+        <v>39.35871710526316</v>
       </c>
       <c r="O7" t="n">
-        <v>37.45030303030303</v>
+        <v>39.81640624999999</v>
       </c>
       <c r="P7" t="n">
-        <v>43.315</v>
+        <v>38.90022321428571</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.12821428571429</v>
+        <v>47.798125</v>
       </c>
       <c r="R7" t="n">
-        <v>53.15162162162162</v>
+        <v>51.60423387096774</v>
       </c>
       <c r="S7" t="n">
-        <v>46.08647058823529</v>
+        <v>42.30216346153846</v>
       </c>
       <c r="T7" t="n">
-        <v>41.58703703703704</v>
+        <v>42.62201086956522</v>
       </c>
       <c r="U7" t="n">
-        <v>35.54615384615385</v>
+        <v>38.40366847826087</v>
       </c>
       <c r="V7" t="n">
-        <v>37.87357142857143</v>
+        <v>38.73463541666667</v>
       </c>
       <c r="W7" t="n">
-        <v>42.826</v>
+        <v>40.09899193548387</v>
       </c>
       <c r="X7" t="n">
-        <v>46.12807692307692</v>
+        <v>46.15763888888888</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.843</v>
+        <v>47.31225</v>
       </c>
       <c r="Z7" t="n">
-        <v>46.79947368421053</v>
+        <v>37.238625</v>
       </c>
       <c r="AA7" t="n">
-        <v>40.66619047619048</v>
+        <v>34.91116071428571</v>
       </c>
       <c r="AB7" t="n">
-        <v>38.76666666666667</v>
+        <v>36.75277777777778</v>
       </c>
       <c r="AC7" t="n">
-        <v>38.99666666666667</v>
+        <v>38.68470394736842</v>
       </c>
       <c r="AD7" t="n">
-        <v>43.89714285714286</v>
+        <v>40.88560855263158</v>
       </c>
       <c r="AE7" t="n">
-        <v>53.28478260869565</v>
+        <v>52.05590277777777</v>
       </c>
       <c r="AF7" t="n">
-        <v>50.5646</v>
+        <v>50.74068396226415</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>41.25878906249999</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>41.35732758620689</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.01390243902439</v>
+        <v>2023</v>
       </c>
       <c r="C8" t="n">
-        <v>39.72076923076924</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>36.90484848484848</v>
+        <v>39.6791015625</v>
       </c>
       <c r="E8" t="n">
-        <v>39.05333333333333</v>
+        <v>37.91216517857143</v>
       </c>
       <c r="F8" t="n">
-        <v>41.82254901960784</v>
+        <v>39.39460227272727</v>
       </c>
       <c r="G8" t="n">
-        <v>44.22490196078431</v>
+        <v>47.71349085365853</v>
       </c>
       <c r="H8" t="n">
-        <v>43.33509433962264</v>
+        <v>46.16031976744186</v>
       </c>
       <c r="I8" t="n">
-        <v>38.06057142857143</v>
+        <v>39.33494318181818</v>
       </c>
       <c r="J8" t="n">
-        <v>36.90545454545455</v>
+        <v>37.34715909090909</v>
       </c>
       <c r="K8" t="n">
-        <v>38.3684375</v>
+        <v>38.29494485294118</v>
       </c>
       <c r="L8" t="n">
-        <v>40.01885714285714</v>
+        <v>39.88924632352941</v>
       </c>
       <c r="M8" t="n">
-        <v>43.12121951219513</v>
+        <v>40.4233173076923</v>
       </c>
       <c r="N8" t="n">
-        <v>52.68562499999999</v>
+        <v>56.75278532608696</v>
       </c>
       <c r="O8" t="n">
-        <v>51.97</v>
+        <v>55.7625</v>
       </c>
       <c r="P8" t="n">
-        <v>43.22068181818182</v>
+        <v>41.45198863636364</v>
       </c>
       <c r="Q8" t="n">
-        <v>37.315</v>
+        <v>37.80020380434782</v>
       </c>
       <c r="R8" t="n">
-        <v>35.7351724137931</v>
+        <v>40.91077806122449</v>
       </c>
       <c r="S8" t="n">
-        <v>36.26346153846154</v>
+        <v>39.16442307692308</v>
       </c>
       <c r="T8" t="n">
-        <v>40.89085714285714</v>
+        <v>45.60912828947369</v>
       </c>
       <c r="U8" t="n">
-        <v>47.4418918918919</v>
+        <v>55.22792119565216</v>
       </c>
       <c r="V8" t="n">
-        <v>50.22837209302326</v>
+        <v>52.24794642857142</v>
       </c>
       <c r="W8" t="n">
-        <v>38.74807692307692</v>
+        <v>41.0490234375</v>
       </c>
       <c r="X8" t="n">
-        <v>35.82375</v>
+        <v>38.7678125</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.4905</v>
+        <v>36.90411585365854</v>
       </c>
       <c r="Z8" t="n">
-        <v>36.16653846153847</v>
+        <v>36.47514204545455</v>
       </c>
       <c r="AA8" t="n">
-        <v>39.92183673469388</v>
+        <v>43.35669642857143</v>
       </c>
       <c r="AB8" t="n">
-        <v>50.76111111111111</v>
+        <v>50.23074324324324</v>
       </c>
       <c r="AC8" t="n">
-        <v>55.42369565217391</v>
+        <v>54.54414893617022</v>
       </c>
       <c r="AD8" t="n">
-        <v>47.34763157894737</v>
+        <v>46.7703125</v>
       </c>
       <c r="AE8" t="n">
-        <v>38.57884615384616</v>
+        <v>46.68080357142857</v>
       </c>
       <c r="AF8" t="n">
-        <v>39.0324</v>
+        <v>44.23841911764706</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>40.54514802631579</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>41.07208333333333</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Feb</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41.61464285714286</v>
+        <v>2023</v>
       </c>
       <c r="C9" t="n">
-        <v>40.9218918918919</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>51.23951219512195</v>
+        <v>49.13093112244898</v>
       </c>
       <c r="E9" t="n">
-        <v>52.8398</v>
+        <v>49.30587284482758</v>
       </c>
       <c r="F9" t="n">
-        <v>42.43771428571429</v>
+        <v>45.51909722222222</v>
       </c>
       <c r="G9" t="n">
-        <v>42.22974358974359</v>
+        <v>42.18521959459459</v>
       </c>
       <c r="H9" t="n">
-        <v>36.262</v>
+        <v>40.03607142857143</v>
       </c>
       <c r="I9" t="n">
-        <v>36.24840909090909</v>
+        <v>39.3134375</v>
       </c>
       <c r="J9" t="n">
-        <v>41.91111111111111</v>
+        <v>41.95084459459459</v>
       </c>
       <c r="K9" t="n">
-        <v>53.03347826086956</v>
+        <v>51.02541118421053</v>
       </c>
       <c r="L9" t="n">
-        <v>49.47894736842105</v>
+        <v>47.6302734375</v>
       </c>
       <c r="M9" t="n">
-        <v>48.57371428571428</v>
+        <v>40.35055147058824</v>
       </c>
       <c r="N9" t="n">
-        <v>44.0635294117647</v>
+        <v>40.17048611111111</v>
       </c>
       <c r="O9" t="n">
-        <v>39.07428571428571</v>
+        <v>40.89393028846154</v>
       </c>
       <c r="P9" t="n">
-        <v>37.81780487804878</v>
+        <v>40.38912259615385</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.15787234042553</v>
+        <v>39.09183673469388</v>
       </c>
       <c r="R9" t="n">
-        <v>51.775</v>
+        <v>52.88958333333333</v>
       </c>
       <c r="S9" t="n">
-        <v>54.47347826086957</v>
+        <v>56.56965144230769</v>
       </c>
       <c r="T9" t="n">
-        <v>43.57404255319149</v>
+        <v>40.38409090909091</v>
       </c>
       <c r="U9" t="n">
-        <v>36.50923076923077</v>
+        <v>38.9545673076923</v>
       </c>
       <c r="V9" t="n">
-        <v>38.78444444444445</v>
+        <v>38.3720625</v>
       </c>
       <c r="W9" t="n">
-        <v>44.1315625</v>
+        <v>42.40332446808511</v>
       </c>
       <c r="X9" t="n">
-        <v>45.85972222222222</v>
+        <v>38.40080818965517</v>
       </c>
       <c r="Y9" t="n">
-        <v>51.9378</v>
+        <v>51.71350446428571</v>
       </c>
       <c r="Z9" t="n">
-        <v>49.64634615384615</v>
+        <v>53.299125</v>
       </c>
       <c r="AA9" t="n">
-        <v>43.80024390243902</v>
+        <v>42.63846153846153</v>
       </c>
       <c r="AB9" t="n">
-        <v>40.1075</v>
+        <v>42.24933035714286</v>
       </c>
       <c r="AC9" t="n">
-        <v>42.89823529411765</v>
+        <v>44.60176630434783</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>43.02275943396226</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>42.0309375</v>
       </c>
       <c r="AF9" t="n">
+        <v>58.16899038461538</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>56.12246462264151</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>44.13742857142857</v>
+        <v>2023</v>
       </c>
       <c r="C10" t="n">
-        <v>41.52071428571429</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>54.14090909090908</v>
+        <v>59.953125</v>
       </c>
       <c r="E10" t="n">
-        <v>56.47795918367347</v>
+        <v>47.96484375</v>
       </c>
       <c r="F10" t="n">
-        <v>44.216</v>
+        <v>56.18382352941176</v>
       </c>
       <c r="G10" t="n">
-        <v>42.003125</v>
+        <v>54.06647727272728</v>
       </c>
       <c r="H10" t="n">
-        <v>42.19894736842105</v>
+        <v>65.8640625</v>
       </c>
       <c r="I10" t="n">
-        <v>42.39224489795918</v>
+        <v>97.70360054347825</v>
       </c>
       <c r="J10" t="n">
-        <v>86.66666666666667</v>
+        <v>98.06107336956521</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0566037735849</v>
+        <v>58.74252717391305</v>
       </c>
       <c r="L10" t="n">
-        <v>103.7358490566038</v>
+        <v>41.16286764705882</v>
       </c>
       <c r="M10" t="n">
-        <v>79.59999999999999</v>
+        <v>40.82607421875</v>
       </c>
       <c r="N10" t="n">
-        <v>63.18367346938776</v>
+        <v>44.00320312500001</v>
       </c>
       <c r="O10" t="n">
-        <v>57.36734693877551</v>
+        <v>63.76063701923077</v>
       </c>
       <c r="P10" t="n">
-        <v>56.209</v>
+        <v>86.79393028846154</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.09999999999999</v>
+        <v>85.18036556603774</v>
       </c>
       <c r="R10" t="n">
-        <v>96.80811320754717</v>
+        <v>58.54442934782608</v>
       </c>
       <c r="S10" t="n">
-        <v>97.15000000000001</v>
+        <v>43.17115384615385</v>
       </c>
       <c r="T10" t="n">
-        <v>72.45606060606062</v>
+        <v>43.84815340909091</v>
       </c>
       <c r="U10" t="n">
-        <v>50.33571428571428</v>
+        <v>43.69725</v>
       </c>
       <c r="V10" t="n">
-        <v>48.83521739130435</v>
+        <v>63.83854166666666</v>
       </c>
       <c r="W10" t="n">
-        <v>39.48784313725491</v>
+        <v>83.97545454545455</v>
       </c>
       <c r="X10" t="n">
-        <v>44.41428571428571</v>
+        <v>84.85086805555555</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.45217391304348</v>
+        <v>58.98262499999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>54.88444444444445</v>
+        <v>43.22925</v>
       </c>
       <c r="AA10" t="n">
-        <v>41.62</v>
+        <v>42.59949324324324</v>
       </c>
       <c r="AB10" t="n">
-        <v>40.75529411764706</v>
+        <v>44.8496462264151</v>
       </c>
       <c r="AC10" t="n">
-        <v>45.42955555555555</v>
+        <v>65.09775</v>
       </c>
       <c r="AD10" t="n">
-        <v>49.869</v>
+        <v>84.15749999999998</v>
       </c>
       <c r="AE10" t="n">
-        <v>45.97040816326531</v>
+        <v>87.79613970588235</v>
       </c>
       <c r="AF10" t="n">
-        <v>56.39775510204081</v>
+        <v>53.6152712264151</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>42.06261160714286</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>40.41993243243243</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Apr</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>53.56211538461538</v>
+        <v>2023</v>
       </c>
       <c r="C11" t="n">
-        <v>44.14729166666667</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>41.10878048780488</v>
+        <v>43.440375</v>
       </c>
       <c r="E11" t="n">
-        <v>41.60883720930233</v>
+        <v>60.58333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>41.12386363636364</v>
+        <v>86.30018382352941</v>
       </c>
       <c r="G11" t="n">
-        <v>46.45148936170212</v>
+        <v>78.3079326923077</v>
       </c>
       <c r="H11" t="n">
-        <v>54.43288461538462</v>
+        <v>54.89411337209302</v>
       </c>
       <c r="I11" t="n">
-        <v>56.46186046511628</v>
+        <v>44.45276785714285</v>
       </c>
       <c r="J11" t="n">
-        <v>45.38184210526316</v>
+        <v>44.40360576923077</v>
       </c>
       <c r="K11" t="n">
-        <v>37.85931034482759</v>
+        <v>43.56715116279069</v>
       </c>
       <c r="L11" t="n">
-        <v>39.3115</v>
+        <v>61.023125</v>
       </c>
       <c r="M11" t="n">
-        <v>43.79272727272728</v>
+        <v>70.7752358490566</v>
       </c>
       <c r="N11" t="n">
-        <v>45.00867924528302</v>
+        <v>69.92343749999999</v>
       </c>
       <c r="O11" t="n">
-        <v>55.99727272727272</v>
+        <v>46.77573529411765</v>
       </c>
       <c r="P11" t="n">
-        <v>56.43654545454546</v>
+        <v>42.54375</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.04634615384615</v>
+        <v>45.7803125</v>
       </c>
       <c r="R11" t="n">
-        <v>47.66738095238095</v>
+        <v>48.60669642857142</v>
       </c>
       <c r="S11" t="n">
-        <v>47.36744186046511</v>
+        <v>44.08173491379311</v>
       </c>
       <c r="T11" t="n">
-        <v>47.4725</v>
+        <v>45.67623820754717</v>
       </c>
       <c r="U11" t="n">
-        <v>48.42098039215686</v>
+        <v>48.82404661016949</v>
       </c>
       <c r="V11" t="n">
-        <v>66.60818181818182</v>
+        <v>37.4125</v>
       </c>
       <c r="W11" t="n">
-        <v>64.6691489361702</v>
+        <v>32.90976562500001</v>
       </c>
       <c r="X11" t="n">
-        <v>51.19090909090909</v>
+        <v>33.29476744186046</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.53042553191489</v>
+        <v>34.49954268292683</v>
       </c>
       <c r="Z11" t="n">
-        <v>46.6568</v>
+        <v>40.00252659574468</v>
       </c>
       <c r="AA11" t="n">
-        <v>48.01958333333334</v>
+        <v>51.93790760869565</v>
       </c>
       <c r="AB11" t="n">
-        <v>50.13942307692308</v>
+        <v>47.46649709302326</v>
       </c>
       <c r="AC11" t="n">
-        <v>55.5929411764706</v>
+        <v>36.37930743243243</v>
       </c>
       <c r="AD11" t="n">
-        <v>55.2274</v>
+        <v>39.17510080645161</v>
       </c>
       <c r="AE11" t="n">
-        <v>47.48541666666667</v>
+        <v>40.459375</v>
       </c>
       <c r="AF11" t="n">
+        <v>42.20015625</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>41.31052989130435</v>
+      </c>
+      <c r="AH11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>42.57909090909091</v>
+        <v>2023</v>
       </c>
       <c r="C12" t="n">
-        <v>41.01452380952381</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>41.11666666666666</v>
+        <v>47.3311875</v>
       </c>
       <c r="E12" t="n">
-        <v>45.29296296296297</v>
+        <v>49.8165</v>
       </c>
       <c r="F12" t="n">
-        <v>59.34979591836734</v>
+        <v>38.017734375</v>
       </c>
       <c r="G12" t="n">
-        <v>56.82148148148148</v>
+        <v>33.54733455882354</v>
       </c>
       <c r="H12" t="n">
-        <v>46.31208333333333</v>
+        <v>34.89483173076923</v>
       </c>
       <c r="I12" t="n">
-        <v>45.37341463414634</v>
+        <v>39.27338709677419</v>
       </c>
       <c r="J12" t="n">
-        <v>41.778</v>
+        <v>40.28709677419355</v>
       </c>
       <c r="K12" t="n">
-        <v>39.82615384615384</v>
+        <v>53.97327127659575</v>
       </c>
       <c r="L12" t="n">
-        <v>43.48829268292683</v>
+        <v>51.50086436170213</v>
       </c>
       <c r="M12" t="n">
-        <v>53.24283018867924</v>
+        <v>40.31328125</v>
       </c>
       <c r="N12" t="n">
-        <v>52.47692307692308</v>
+        <v>34.53942307692307</v>
       </c>
       <c r="O12" t="n">
-        <v>40.74880952380953</v>
+        <v>35.52606907894737</v>
       </c>
       <c r="P12" t="n">
-        <v>42.17725</v>
+        <v>32.53252840909092</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.08232142857143</v>
+        <v>34.7234879032258</v>
       </c>
       <c r="R12" t="n">
-        <v>40.49259259259259</v>
+        <v>43.485</v>
       </c>
       <c r="S12" t="n">
-        <v>42.9548076923077</v>
+        <v>49.38984375</v>
       </c>
       <c r="T12" t="n">
-        <v>51.88482142857143</v>
+        <v>40.28114224137931</v>
       </c>
       <c r="U12" t="n">
-        <v>53.06346938775511</v>
+        <v>41.0634375</v>
       </c>
       <c r="V12" t="n">
-        <v>43.5945652173913</v>
+        <v>36.50714285714286</v>
       </c>
       <c r="W12" t="n">
-        <v>39.73634146341463</v>
+        <v>36.25653409090909</v>
       </c>
       <c r="X12" t="n">
-        <v>40.54769230769231</v>
+        <v>35.203125</v>
       </c>
       <c r="Y12" t="n">
-        <v>46.37756756756757</v>
+        <v>42.5328125</v>
       </c>
       <c r="Z12" t="n">
-        <v>45.17</v>
+        <v>39.971484375</v>
       </c>
       <c r="AA12" t="n">
-        <v>56.37695652173913</v>
+        <v>35.571875</v>
       </c>
       <c r="AB12" t="n">
-        <v>56.58367346938775</v>
+        <v>34.659375</v>
       </c>
       <c r="AC12" t="n">
-        <v>45.81098039215686</v>
+        <v>36.4734375</v>
       </c>
       <c r="AD12" t="n">
-        <v>47.58230769230769</v>
+        <v>34.42139423076923</v>
       </c>
       <c r="AE12" t="n">
-        <v>43.89641025641026</v>
+        <v>41.15408653846153</v>
       </c>
       <c r="AF12" t="n">
-        <v>44.49244897959184</v>
+        <v>52.773125</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>53.50643382352941</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>51.875</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44.75395833333334</v>
+        <v>2024</v>
       </c>
       <c r="C13" t="n">
-        <v>54.58326086956522</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>55.69770833333333</v>
+        <v>37.15257352941177</v>
       </c>
       <c r="E13" t="n">
-        <v>44.54717948717948</v>
+        <v>38.32767857142857</v>
       </c>
       <c r="F13" t="n">
-        <v>40.21813953488373</v>
+        <v>39.6209375</v>
       </c>
       <c r="G13" t="n">
-        <v>42.10451612903226</v>
+        <v>42.26111111111111</v>
       </c>
       <c r="H13" t="n">
-        <v>38.92852941176471</v>
+        <v>49.31875</v>
       </c>
       <c r="I13" t="n">
-        <v>42.91530612244897</v>
+        <v>47.75859375</v>
       </c>
       <c r="J13" t="n">
-        <v>59.38979166666667</v>
+        <v>38.80635775862069</v>
       </c>
       <c r="K13" t="n">
-        <v>61.72413043478261</v>
+        <v>36.64759615384615</v>
       </c>
       <c r="L13" t="n">
-        <v>52.09829268292683</v>
+        <v>34.80523897058823</v>
       </c>
       <c r="M13" t="n">
-        <v>44.83411764705882</v>
+        <v>36.98892857142857</v>
       </c>
       <c r="N13" t="n">
-        <v>42.20878048780488</v>
+        <v>41.76176470588235</v>
       </c>
       <c r="O13" t="n">
-        <v>43.73837209302326</v>
+        <v>50.2759375</v>
       </c>
       <c r="P13" t="n">
-        <v>46.57142857142857</v>
+        <v>47.94072580645161</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.88939999999999</v>
+        <v>37.46975806451613</v>
       </c>
       <c r="R13" t="n">
-        <v>53.90046511627907</v>
+        <v>38.90390625000001</v>
       </c>
       <c r="S13" t="n">
-        <v>44.73088888888888</v>
+        <v>39.17727272727273</v>
       </c>
       <c r="T13" t="n">
-        <v>39.065</v>
+        <v>37.84374999999999</v>
       </c>
       <c r="U13" t="n">
-        <v>40.55075</v>
+        <v>44.7325</v>
       </c>
       <c r="V13" t="n">
-        <v>39.71744186046512</v>
+        <v>44.95669642857143</v>
       </c>
       <c r="W13" t="n">
-        <v>42.41378378378378</v>
+        <v>42.9028125</v>
       </c>
       <c r="X13" t="n">
-        <v>51.27645833333333</v>
+        <v>44.4975</v>
       </c>
       <c r="Y13" t="n">
-        <v>55.58142857142857</v>
+        <v>38.2157327586207</v>
       </c>
       <c r="Z13" t="n">
-        <v>45.31041666666667</v>
+        <v>36.110625</v>
       </c>
       <c r="AA13" t="n">
-        <v>43.13</v>
+        <v>35.68303571428572</v>
       </c>
       <c r="AB13" t="n">
-        <v>43.01378378378379</v>
+        <v>37.6109375</v>
       </c>
       <c r="AC13" t="n">
-        <v>47.15428571428571</v>
+        <v>48.68106617647059</v>
       </c>
       <c r="AD13" t="n">
-        <v>43.294375</v>
+        <v>50.36430288461538</v>
       </c>
       <c r="AE13" t="n">
-        <v>53.62681818181818</v>
+        <v>39.23763586956522</v>
       </c>
       <c r="AF13" t="n">
+        <v>40.45625</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>35.86789772727273</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>34.26814903846154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35.57276785714286</v>
+      </c>
+      <c r="E14" t="n">
+        <v>49.0155330882353</v>
+      </c>
+      <c r="F14" t="n">
+        <v>48.83634868421053</v>
+      </c>
+      <c r="G14" t="n">
+        <v>39.13052884615384</v>
+      </c>
+      <c r="H14" t="n">
+        <v>36.59375</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40.17784090909091</v>
+      </c>
+      <c r="J14" t="n">
+        <v>40.736625</v>
+      </c>
+      <c r="K14" t="n">
+        <v>43.0565625</v>
+      </c>
+      <c r="L14" t="n">
+        <v>50.63849085365854</v>
+      </c>
+      <c r="M14" t="n">
+        <v>55.11479779411765</v>
+      </c>
+      <c r="N14" t="n">
+        <v>36.12826704545455</v>
+      </c>
+      <c r="O14" t="n">
+        <v>38.8414402173913</v>
+      </c>
+      <c r="P14" t="n">
+        <v>40.0546875</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>38.35125</v>
+      </c>
+      <c r="R14" t="n">
+        <v>41.24679276315789</v>
+      </c>
+      <c r="S14" t="n">
+        <v>49.7125</v>
+      </c>
+      <c r="T14" t="n">
+        <v>54.90975765306122</v>
+      </c>
+      <c r="U14" t="n">
+        <v>45.47624999999999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>44.143359375</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/past_adr.xlsx
+++ b/Output/past_adr.xlsx
@@ -594,16 +594,16 @@
         <v>34.6875</v>
       </c>
       <c r="S2" t="n">
-        <v>35.248125</v>
+        <v>36.5625</v>
       </c>
       <c r="T2" t="n">
-        <v>47.76706730769231</v>
+        <v>43.0078125</v>
       </c>
       <c r="U2" t="n">
-        <v>51.68002232142857</v>
+        <v>48.07125</v>
       </c>
       <c r="V2" t="n">
-        <v>40.85066489361702</v>
+        <v>38.287109375</v>
       </c>
       <c r="W2" t="n">
         <v>34.22740384615384</v>
@@ -1815,46 +1815,46 @@
         <v>40.17784090909091</v>
       </c>
       <c r="J14" t="n">
-        <v>40.736625</v>
+        <v>40.50396634615385</v>
       </c>
       <c r="K14" t="n">
-        <v>43.0565625</v>
+        <v>42.84707661290322</v>
       </c>
       <c r="L14" t="n">
-        <v>50.63849085365854</v>
+        <v>50.5265625</v>
       </c>
       <c r="M14" t="n">
-        <v>55.11479779411765</v>
+        <v>54.85258928571428</v>
       </c>
       <c r="N14" t="n">
-        <v>36.12826704545455</v>
+        <v>36.14714673913043</v>
       </c>
       <c r="O14" t="n">
-        <v>38.8414402173913</v>
+        <v>38.66835937499999</v>
       </c>
       <c r="P14" t="n">
-        <v>40.0546875</v>
+        <v>39.88155241935483</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.35125</v>
+        <v>38.23306451612903</v>
       </c>
       <c r="R14" t="n">
-        <v>41.24679276315789</v>
+        <v>41.12668269230769</v>
       </c>
       <c r="S14" t="n">
-        <v>49.7125</v>
+        <v>49.618125</v>
       </c>
       <c r="T14" t="n">
-        <v>54.90975765306122</v>
+        <v>54.7303125</v>
       </c>
       <c r="U14" t="n">
-        <v>45.47624999999999</v>
+        <v>44.99442567567567</v>
       </c>
       <c r="V14" t="n">
-        <v>44.143359375</v>
+        <v>42.63515624999999</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>36.54375</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
